--- a/model/data-welding.xlsx
+++ b/model/data-welding.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python_Coding\final-year-project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python_Coding\final-year-project\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D3BC8D-E5F4-4E68-8AFB-B529C66F3224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01080518-8FD8-4A9B-B010-2E1D413AF397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{0E01B18F-F522-4593-8781-4B5551A74515}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" activeTab="1" xr2:uid="{0E01B18F-F522-4593-8781-4B5551A74515}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -516,7 +516,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -526,6 +526,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -653,7 +659,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -689,19 +695,246 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="24">
     <dxf>
       <font>
         <b/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -984,23 +1217,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E903B6A9-17A1-44F4-8A1A-933995696695}" name="Table075__Page_70" displayName="Table075__Page_70" ref="A1:H32" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9" headerRowCellStyle="Normal" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E903B6A9-17A1-44F4-8A1A-933995696695}" name="Table075__Page_70" displayName="Table075__Page_70" ref="A1:H32" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22" tableBorderDxfId="21" totalsRowBorderDxfId="20" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{ECEF798B-338F-4AF3-A20C-9C43EAE76FB3}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="8" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{515B4C04-15C4-4BF3-BEF9-DE3B1EFC3160}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="7" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{CD30FA0A-F3D3-4778-B778-BBABE2F70633}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="6" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{5101CBC2-E9EC-430B-BA45-7B8F73C6663A}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="5" dataCellStyle="Normal"/>
-    <tableColumn id="5" xr3:uid="{842B2098-5B45-43FE-8866-5C7EAC2D2327}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="4" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{DF3AEEE3-7AE0-4A23-A13F-8C59481C32D7}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="3" dataCellStyle="Normal"/>
-    <tableColumn id="7" xr3:uid="{C5495756-7ABE-4C4D-AC64-BAA1F638E560}" uniqueName="7" name="Column7" queryTableFieldId="7" dataDxfId="2" dataCellStyle="Normal"/>
-    <tableColumn id="8" xr3:uid="{91A6B2BF-79EA-49A5-A4CB-B6DCCC9B138A}" uniqueName="8" name="Column8" queryTableFieldId="8" dataDxfId="1" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{ECEF798B-338F-4AF3-A20C-9C43EAE76FB3}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="19" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{515B4C04-15C4-4BF3-BEF9-DE3B1EFC3160}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="18" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{CD30FA0A-F3D3-4778-B778-BBABE2F70633}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="17" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{5101CBC2-E9EC-430B-BA45-7B8F73C6663A}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="16" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{842B2098-5B45-43FE-8866-5C7EAC2D2327}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="15" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{DF3AEEE3-7AE0-4A23-A13F-8C59481C32D7}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="14" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{C5495756-7ABE-4C4D-AC64-BAA1F638E560}" uniqueName="7" name="Column7" queryTableFieldId="7" dataDxfId="13" dataCellStyle="Normal"/>
+    <tableColumn id="8" xr3:uid="{91A6B2BF-79EA-49A5-A4CB-B6DCCC9B138A}" uniqueName="8" name="Column8" queryTableFieldId="8" dataDxfId="12" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F07650AA-2DE5-4A54-991A-3FEE37D16CD2}" name="Table084__Page_793" displayName="Table084__Page_793" ref="A1:H6" tableType="queryTable" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F07650AA-2DE5-4A54-991A-3FEE37D16CD2}" name="Table084__Page_793" displayName="Table084__Page_793" ref="A1:H6" tableType="queryTable" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="10" tableBorderDxfId="11" totalsRowBorderDxfId="9">
   <autoFilter ref="A1:H6" xr:uid="{F07650AA-2DE5-4A54-991A-3FEE37D16CD2}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -1012,14 +1245,14 @@
     <filterColumn colId="7" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{4EC7A193-2B9E-472B-8458-1239F4551049}" uniqueName="1" name="Weld no." queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{ADCC68EB-4C17-436E-8540-60ABE22D48E9}" uniqueName="2" name="V" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{211B5E0D-355F-4A5B-B6AB-C7BD57B2930A}" uniqueName="3" name="A" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{E48D4B9F-C31F-4710-871F-266C5745290D}" uniqueName="4" name="S" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{47688F06-9909-4376-8A3E-E1ADEFD23A5E}" uniqueName="5" name="N" queryTableFieldId="5"/>
-    <tableColumn id="7" xr3:uid="{5D2889B7-30BF-42BE-83CE-6B8C10BF31A2}" uniqueName="7" name="H" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{12F4ADDB-E195-45B3-AA9E-E951FC1B2477}" uniqueName="8" name="W" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{DF44A63A-9401-4A0F-8398-1023DAFDD8B7}" uniqueName="9" name="P" queryTableFieldId="9"/>
+    <tableColumn id="1" xr3:uid="{4EC7A193-2B9E-472B-8458-1239F4551049}" uniqueName="1" name="Weld no." queryTableFieldId="1" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{ADCC68EB-4C17-436E-8540-60ABE22D48E9}" uniqueName="2" name="V" queryTableFieldId="2" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{211B5E0D-355F-4A5B-B6AB-C7BD57B2930A}" uniqueName="3" name="A" queryTableFieldId="3" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{E48D4B9F-C31F-4710-871F-266C5745290D}" uniqueName="4" name="S" queryTableFieldId="4" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{47688F06-9909-4376-8A3E-E1ADEFD23A5E}" uniqueName="5" name="N" queryTableFieldId="5" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{5D2889B7-30BF-42BE-83CE-6B8C10BF31A2}" uniqueName="7" name="H" queryTableFieldId="7" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{12F4ADDB-E195-45B3-AA9E-E951FC1B2477}" uniqueName="8" name="W" queryTableFieldId="8" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{DF44A63A-9401-4A0F-8398-1023DAFDD8B7}" uniqueName="9" name="P" queryTableFieldId="9" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2233,8 +2466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BDF98AB-1214-4E18-AFAA-51DF1411E6C5}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2386,6 +2619,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2393,165 +2627,165 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80A869DF-F6F0-491C-B2E0-FB24B6F148CC}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="21" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2">
+      <c r="A2" s="13">
         <v>5</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>25.5</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>325</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>15</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>23.5</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>2.0299999999999998</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>10.27</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="14">
         <v>3.05</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3">
+      <c r="A3" s="13">
         <v>8</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>32.5</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>475</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>15</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>23.5</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>1.99</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>9.42</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="14">
         <v>5.37</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4">
+      <c r="A4" s="13">
         <v>16</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>32.5</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>475</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>15</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>30.5</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>3.05</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>10.58</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="14">
         <v>4.1900000000000004</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5">
+      <c r="A5" s="13">
         <v>23</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>29</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>400</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>12</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>20</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>1.96</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>10.4</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="14">
         <v>4.34</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6">
+      <c r="A6" s="15">
         <v>31</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="16">
         <v>29</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="16">
         <v>400</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="16">
         <v>12</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="16">
         <v>27</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="16">
         <v>1.94</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="16">
         <v>10.72</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="17">
         <v>3.68</v>
       </c>
     </row>
